--- a/simulation_data/iterative_algorithm/i_error_level_3_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_3_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.96322670960699</v>
+        <v>90.42908031362369</v>
       </c>
       <c r="D2" t="n">
-        <v>3.626518380341707</v>
+        <v>3.076211621060579</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.36388919467639</v>
+        <v>89.1628591275378</v>
       </c>
       <c r="D3" t="n">
-        <v>3.516681142413289</v>
+        <v>3.218701745833203</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.88638659711343</v>
+        <v>88.07280738422897</v>
       </c>
       <c r="D4" t="n">
-        <v>3.197738582197124</v>
+        <v>3.065007538795029</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.77438810884343</v>
+        <v>87.16120661469958</v>
       </c>
       <c r="D5" t="n">
-        <v>3.241855711843456</v>
+        <v>3.34521534944957</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.25433127201066</v>
+        <v>85.93893580851993</v>
       </c>
       <c r="D6" t="n">
-        <v>3.54759609312689</v>
+        <v>3.216118137982225</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.46273723435405</v>
+        <v>84.44860351712134</v>
       </c>
       <c r="D7" t="n">
-        <v>3.599626380754822</v>
+        <v>3.383617708310782</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.28375928337339</v>
+        <v>84.5223112961166</v>
       </c>
       <c r="D8" t="n">
-        <v>3.759337767862742</v>
+        <v>3.013048357368924</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.89844129260615</v>
+        <v>83.15496218713685</v>
       </c>
       <c r="D9" t="n">
-        <v>3.312312396265425</v>
+        <v>3.199933204971416</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.95227680056666</v>
+        <v>82.17195127361248</v>
       </c>
       <c r="D10" t="n">
-        <v>3.45815851637278</v>
+        <v>2.887279926763625</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.97866868280867</v>
+        <v>80.7294256013784</v>
       </c>
       <c r="D11" t="n">
-        <v>3.835990303933544</v>
+        <v>2.888487833546841</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.0730724604034</v>
+        <v>79.7530922809182</v>
       </c>
       <c r="D12" t="n">
-        <v>3.842502109880904</v>
+        <v>3.542982863085691</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.53339961456243</v>
+        <v>78.54764257357714</v>
       </c>
       <c r="D13" t="n">
-        <v>3.06071127664619</v>
+        <v>3.137051467435654</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.81974221601367</v>
+        <v>78.18816443544259</v>
       </c>
       <c r="D14" t="n">
-        <v>4.209343187196086</v>
+        <v>3.332402074694074</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.83771529654297</v>
+        <v>77.09309678119592</v>
       </c>
       <c r="D15" t="n">
-        <v>3.617161920417354</v>
+        <v>2.993992158875963</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.90210930056071</v>
+        <v>76.32527317144601</v>
       </c>
       <c r="D16" t="n">
-        <v>3.71288195120409</v>
+        <v>2.999249077067292</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.05145253025671</v>
+        <v>75.62663970164695</v>
       </c>
       <c r="D17" t="n">
-        <v>3.825219879098965</v>
+        <v>3.182846281360781</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.77035565903296</v>
+        <v>73.50536379217417</v>
       </c>
       <c r="D18" t="n">
-        <v>3.710129895109136</v>
+        <v>3.620729027262193</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.15327481570662</v>
+        <v>73.12952426533234</v>
       </c>
       <c r="D19" t="n">
-        <v>3.739729830932194</v>
+        <v>3.919042206838961</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.87116198174388</v>
+        <v>72.18073061967667</v>
       </c>
       <c r="D20" t="n">
-        <v>3.097110339014706</v>
+        <v>3.346019533523612</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.48104171769131</v>
+        <v>70.94982834575443</v>
       </c>
       <c r="D21" t="n">
-        <v>3.297151111971612</v>
+        <v>3.246083680547792</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.43615761544019</v>
+        <v>69.66451829082503</v>
       </c>
       <c r="D22" t="n">
-        <v>3.564530984564069</v>
+        <v>3.393817944983756</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.37751441592863</v>
+        <v>68.94768609135176</v>
       </c>
       <c r="D23" t="n">
-        <v>3.684792742085567</v>
+        <v>3.632367258651163</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.7928410464488</v>
+        <v>68.0080979630855</v>
       </c>
       <c r="D24" t="n">
-        <v>3.474048691559059</v>
+        <v>3.297724399588728</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.61789526740073</v>
+        <v>67.1119124132411</v>
       </c>
       <c r="D25" t="n">
-        <v>3.958591487412622</v>
+        <v>3.551249885596096</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.00877519318946</v>
+        <v>66.15289334166883</v>
       </c>
       <c r="D26" t="n">
-        <v>3.499210616844969</v>
+        <v>3.116785570560437</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.64580132042214</v>
+        <v>64.83524146474811</v>
       </c>
       <c r="D27" t="n">
-        <v>3.491025762159843</v>
+        <v>3.669426810706383</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.2683338145572</v>
+        <v>63.87844022928802</v>
       </c>
       <c r="D28" t="n">
-        <v>3.349550745557408</v>
+        <v>2.939664256514704</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.96623460715088</v>
+        <v>63.12401484976627</v>
       </c>
       <c r="D29" t="n">
-        <v>3.633890777680179</v>
+        <v>3.374383766240882</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.79301151972222</v>
+        <v>62.02087054072279</v>
       </c>
       <c r="D30" t="n">
-        <v>3.739550754202142</v>
+        <v>3.297589672830227</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.89218957530166</v>
+        <v>60.44735437148562</v>
       </c>
       <c r="D31" t="n">
-        <v>3.760270555179802</v>
+        <v>3.721928225289234</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.30017239341542</v>
+        <v>60.44468072004886</v>
       </c>
       <c r="D32" t="n">
-        <v>3.361647178983615</v>
+        <v>3.373675678433656</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.28850829733922</v>
+        <v>60.01418317918176</v>
       </c>
       <c r="D33" t="n">
-        <v>3.325664112892326</v>
+        <v>3.718401650900681</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.46785622669327</v>
+        <v>58.43591749430795</v>
       </c>
       <c r="D34" t="n">
-        <v>3.085922002689894</v>
+        <v>3.6314419417044</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.10028884377826</v>
+        <v>57.10746566867675</v>
       </c>
       <c r="D35" t="n">
-        <v>3.991553467569275</v>
+        <v>3.272821955118236</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.10634604718346</v>
+        <v>56.22779850967545</v>
       </c>
       <c r="D36" t="n">
-        <v>3.747556064063949</v>
+        <v>3.441907916761402</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.77014033404895</v>
+        <v>55.06312459881318</v>
       </c>
       <c r="D37" t="n">
-        <v>3.870640940196871</v>
+        <v>3.705300248724438</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.39897599035986</v>
+        <v>54.11915901650656</v>
       </c>
       <c r="D38" t="n">
-        <v>3.553874841663565</v>
+        <v>3.6084638130133</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.01211632318277</v>
+        <v>52.52012173921328</v>
       </c>
       <c r="D39" t="n">
-        <v>3.409627472895728</v>
+        <v>3.462519987106527</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.90874289964348</v>
+        <v>52.11115324239791</v>
       </c>
       <c r="D40" t="n">
-        <v>3.893091679218765</v>
+        <v>3.5585932042383</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.32997814005108</v>
+        <v>51.47323116874284</v>
       </c>
       <c r="D41" t="n">
-        <v>3.528179543492318</v>
+        <v>3.411052509222366</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.63428042591494</v>
+        <v>50.51674725266434</v>
       </c>
       <c r="D42" t="n">
-        <v>3.567474729240797</v>
+        <v>3.504834736059881</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.16581061826368</v>
+        <v>49.03443816295913</v>
       </c>
       <c r="D43" t="n">
-        <v>3.891651612949811</v>
+        <v>3.672859254296783</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.03108240871794</v>
+        <v>47.91814179607093</v>
       </c>
       <c r="D44" t="n">
-        <v>3.243544847565051</v>
+        <v>3.915864089176971</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.93276122312295</v>
+        <v>46.93084149477096</v>
       </c>
       <c r="D45" t="n">
-        <v>3.776248879056498</v>
+        <v>3.838638987963849</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.39274346633709</v>
+        <v>46.61113993220099</v>
       </c>
       <c r="D46" t="n">
-        <v>3.901955481333166</v>
+        <v>3.72915390829526</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.02741778579177</v>
+        <v>45.067125611021</v>
       </c>
       <c r="D47" t="n">
-        <v>3.804233871732619</v>
+        <v>3.56988826426753</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.24328157069517</v>
+        <v>44.13473236540578</v>
       </c>
       <c r="D48" t="n">
-        <v>3.770327963184885</v>
+        <v>3.773396694059072</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.13466707417027</v>
+        <v>43.63056040129059</v>
       </c>
       <c r="D49" t="n">
-        <v>3.739461472386418</v>
+        <v>3.650022597703462</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.44882575061291</v>
+        <v>41.83895959665386</v>
       </c>
       <c r="D50" t="n">
-        <v>3.210174044054746</v>
+        <v>3.481308481629767</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.98767968701718</v>
+        <v>40.38911757737895</v>
       </c>
       <c r="D51" t="n">
-        <v>3.357440130083273</v>
+        <v>3.349552966422877</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.53746597714755</v>
+        <v>40.33691384754431</v>
       </c>
       <c r="D52" t="n">
-        <v>3.582081013215882</v>
+        <v>3.477502080456227</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.98356372359387</v>
+        <v>38.47983641449299</v>
       </c>
       <c r="D53" t="n">
-        <v>3.719374867717545</v>
+        <v>3.459531671650322</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.20486277804804</v>
+        <v>37.91975373403731</v>
       </c>
       <c r="D54" t="n">
-        <v>3.35290373985438</v>
+        <v>3.785555923535517</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.399407193047</v>
+        <v>36.39263163081936</v>
       </c>
       <c r="D55" t="n">
-        <v>3.705749990799871</v>
+        <v>3.568346476484177</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.1826292079099</v>
+        <v>35.75847981429504</v>
       </c>
       <c r="D56" t="n">
-        <v>3.256563864748964</v>
+        <v>3.543585344004311</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.99358026494218</v>
+        <v>34.93913952482004</v>
       </c>
       <c r="D57" t="n">
-        <v>3.712427703143007</v>
+        <v>3.581206588345123</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.83453698646776</v>
+        <v>33.57714456976095</v>
       </c>
       <c r="D58" t="n">
-        <v>3.651782593070099</v>
+        <v>3.081422405052826</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.17337067633848</v>
+        <v>32.70034248791119</v>
       </c>
       <c r="D59" t="n">
-        <v>3.52609856199234</v>
+        <v>4.215252468263002</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.23198098489623</v>
+        <v>31.46621483565703</v>
       </c>
       <c r="D60" t="n">
-        <v>3.716287986377077</v>
+        <v>4.086082766473569</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.82198156126194</v>
+        <v>30.42830075069407</v>
       </c>
       <c r="D61" t="n">
-        <v>3.544549161324857</v>
+        <v>3.941891232239353</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.39837550677383</v>
+        <v>30.5729735572534</v>
       </c>
       <c r="D62" t="n">
-        <v>3.69404166321006</v>
+        <v>3.458448395962998</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.68247009798318</v>
+        <v>28.66543160454454</v>
       </c>
       <c r="D63" t="n">
-        <v>3.726668926719336</v>
+        <v>3.777683361420565</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.94450873693328</v>
+        <v>27.71496115008194</v>
       </c>
       <c r="D64" t="n">
-        <v>3.788517769694084</v>
+        <v>3.622725516126224</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.79453927699207</v>
+        <v>27.25188891550095</v>
       </c>
       <c r="D65" t="n">
-        <v>3.275184911863466</v>
+        <v>3.399878342795519</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.37957280706637</v>
+        <v>26.16455210007464</v>
       </c>
       <c r="D66" t="n">
-        <v>3.487281065937439</v>
+        <v>3.568360169425295</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.35394129738907</v>
+        <v>24.48252967926715</v>
       </c>
       <c r="D67" t="n">
-        <v>3.726905392581625</v>
+        <v>3.563932491299389</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.97149601511981</v>
+        <v>24.33262109920615</v>
       </c>
       <c r="D68" t="n">
-        <v>3.832636340440803</v>
+        <v>3.633092519772076</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.90833426905382</v>
+        <v>22.89192365669486</v>
       </c>
       <c r="D69" t="n">
-        <v>3.647627056126254</v>
+        <v>3.602825321107162</v>
       </c>
     </row>
   </sheetData>
